--- a/Template.xlsx
+++ b/Template.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25980" windowHeight="10500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25980" windowHeight="10500"/>
   </bookViews>
   <sheets>
-    <sheet name="files" sheetId="1" r:id="rId1"/>
-    <sheet name="signals" sheetId="3" r:id="rId2"/>
+    <sheet name="explanations" sheetId="4" r:id="rId1"/>
+    <sheet name="files" sheetId="1" r:id="rId2"/>
     <sheet name="settings" sheetId="2" r:id="rId3"/>
+    <sheet name="signals" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>retention_time_estimate</t>
   </si>
@@ -59,13 +60,172 @@
   </si>
   <si>
     <t>file_name</t>
+  </si>
+  <si>
+    <t>In the following sections, the sheets and the user's tasks will be explained.</t>
+  </si>
+  <si>
+    <t>1) files:</t>
+  </si>
+  <si>
+    <t>Does not require user action.</t>
+  </si>
+  <si>
+    <t>2) settings:</t>
+  </si>
+  <si>
+    <t>3) signals:</t>
+  </si>
+  <si>
+    <t>Some general settings for processing your batch:</t>
+  </si>
+  <si>
+    <t>Only if pre_filtering was set to "True".</t>
+  </si>
+  <si>
+    <r>
+      <t>2.2) pre_filtering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.1) plotting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.2a) peak_width_estimate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.2b) minimum_sn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>May require user action (depending on the settings).</t>
+  </si>
+  <si>
+    <t>1.1) file_name:</t>
+  </si>
+  <si>
+    <t>Each raw data file should correspond to a single signal (i.e. a potential peak or double peak).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains a list of all raw data files in the directory supplied by the user. </t>
+  </si>
+  <si>
+    <t>Select "True" if you want plots with the results of the simulations to be generated. If plots are not necessary, select "False".</t>
+  </si>
+  <si>
+    <t>In the latter case, only the data report Excel files will be supplied.</t>
+  </si>
+  <si>
+    <t>Choose a rough, general peak width for your acquisition method.</t>
+  </si>
+  <si>
+    <t>Signals which do not feature peaks within a window of 3 times the peak width around the expected retention time (see signals) are not recognized as a peak.</t>
+  </si>
+  <si>
+    <t>Choose minimum signal-to-noise ratio for a signal to be regarded as a peak.</t>
+  </si>
+  <si>
+    <t>3.1) unique_identifier:</t>
+  </si>
+  <si>
+    <t>3.2) model_type:</t>
+  </si>
+  <si>
+    <t>Option to force Peak Performance to use a model with a specific kind of distribution for peak fitting ("normal", "skew_normal", "double_normal", "double_skew_normal").</t>
+  </si>
+  <si>
+    <t>For every target for which no distribution was chosen, it will be determined automatically by model selection via an information criterion.</t>
+  </si>
+  <si>
+    <t>Every acquisition of a batch features a number of m/z ratios or mass traces pertaining to certain target molecules.</t>
+  </si>
+  <si>
+    <t>The subsequent columns "model_type" and "retention_time_estimate" supply additional information about these target molecules.</t>
+  </si>
+  <si>
+    <t>Pre_filtering needs a rough estimate for the expected retention time of each targeted molecule (in the same unit as the time dimension of your time series is in).</t>
+  </si>
+  <si>
+    <t>acquisition_for_choosing_model_type</t>
+  </si>
+  <si>
+    <t>3.3) acquisition_for_choosing_model_type:</t>
+  </si>
+  <si>
+    <t>3.4) retention_time_estimate:</t>
+  </si>
+  <si>
+    <t>If you do not want to specify a specific distribution for a target, then give the name of an acquisition where the it has a clear peak or double peak.</t>
+  </si>
+  <si>
+    <t>If a single acquisition (e.g. a standard) contains good peaks for all targets, just supply the name of this acquisition once (in C2).</t>
+  </si>
+  <si>
+    <t>This file serves as the user input for Peak Performance. It will be copied into the raw data directory of a given batch.</t>
+  </si>
+  <si>
+    <t>Select "True" if you wish to filter the signals before sampling. The rough filtering is supposed to only prevent signals which clearly feature no peak from wasting computation time.</t>
+  </si>
+  <si>
+    <t>If "True", you also have to supply a peak width estimate and a minimum signal-to-noise ratio (see below) as well as fill out the retention_time_estimate column on the "signals" sheet.</t>
+  </si>
+  <si>
+    <t>These "unique_identifiers" are extracted automatically from the standardized raw data file names and listed in this column.</t>
+  </si>
+  <si>
+    <t>Only if pre_filtering was set to "True" (see settings).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +237,36 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,9 +298,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -126,312 +322,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Textfeld 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2266950" y="76200"/>
-          <a:ext cx="5572125" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>The file_name column contains a list of all raw data files in the directory supplied by the user.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Each raw data file should</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> correspond to a single signal (i.e. a potential peak or double peak).</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Textfeld 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6534150" y="66675"/>
-          <a:ext cx="5876925" cy="2876550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="1" u="sng"/>
-            <a:t>Explanation:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="1"/>
-            <a:t>1) unique_identifier</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>: Every</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> acquisition of a Batch features a number of </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="1" baseline="0"/>
-            <a:t>2) model_type</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="1" baseline="0"/>
-            <a:t>3) retention_time_estimate</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Textfeld 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2371724" y="114300"/>
-          <a:ext cx="5876925" cy="2876550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="1" u="sng"/>
-            <a:t>Explanation:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="1"/>
-            <a:t>1) plotting</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>: Select "True"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> if you want plots with the results of the simulations to be generated. If plots are not necessary, select "False". In the latter case, only the data report Excel files will be supplied.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="1" baseline="0"/>
-            <a:t>2) pre_filtering</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>: Select "True" if a filtering of the signals before sampling is wished. The rough filtering is supposed to only prevent signals which clearly feature no peak from wasting computation time. If this is selected, you also have to supply a peak width estimate and a minimum signal to noise ratio (see below) as well as filling out the retention_time_estimate column on the "signals" sheet.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="1" baseline="0"/>
-            <a:t>3) peak_width_estimate</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="de-DE" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="1" baseline="0"/>
-            <a:t>4) minimum_sn</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t>:</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,58 +587,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="1" max="1" width="69.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -757,7 +809,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,6 +869,41 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Template.xlsx
+++ b/Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>retention_time_estimate</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Only if pre_filtering was set to "True" (see settings).</t>
+  </si>
+  <si>
+    <t>models_to_exclude_from_selection</t>
   </si>
 </sst>
 </file>
@@ -785,7 +788,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +812,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,10 +877,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,10 +888,11 @@
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="39.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -899,6 +903,9 @@
         <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>retention_time_estimate</t>
   </si>
@@ -197,9 +197,6 @@
     <t>3.3) acquisition_for_choosing_model_type:</t>
   </si>
   <si>
-    <t>3.4) retention_time_estimate:</t>
-  </si>
-  <si>
     <t>If you do not want to specify a specific distribution for a target, then give the name of an acquisition where the it has a clear peak or double peak.</t>
   </si>
   <si>
@@ -222,6 +219,15 @@
   </si>
   <si>
     <t>models_to_exclude_from_selection</t>
+  </si>
+  <si>
+    <t>3.5) retention_time_estimate:</t>
+  </si>
+  <si>
+    <t>3.4) models_to_exclude_from_selection:</t>
+  </si>
+  <si>
+    <t>To save time and improve accuracy, exclude clearly unsuitable models from the automated model selection (e.g. double peak models if your data has only one peak).</t>
   </si>
 </sst>
 </file>
@@ -590,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +607,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,13 +671,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,7 +734,7 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -755,25 +761,33 @@
         <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>37</v>
       </c>
     </row>
@@ -880,7 +894,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +917,7 @@
         <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
